--- a/example_data/EPA/label_corrected/000264-00860-20180921_2018-12-07_202157.xlsx
+++ b/example_data/EPA/label_corrected/000264-00860-20180921_2018-12-07_202157.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -591,7 +591,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Env warning - species || Env warning - water || Application instructions || Off Target Movement</t>
+          <t>off target movement || application instructions || env warning - species || env warning - water</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -794,7 +794,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -827,7 +827,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -864,7 +864,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>172_Sensitive_Areas</t>
+          <t>172_sensitive_areas</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
